--- a/curve_table.xlsx
+++ b/curve_table.xlsx
@@ -8,19 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sharpandhowells2015-my.sharepoint.com/personal/lee_sharpandhowells_com_au/Documents/Documents/GitHub/Curve_Optimising/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_6E64FDCE8F79A8D366075C52F3958275ED578411" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A2734D1-FF99-4DDA-B8B2-98F5DB5236F7}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_ED79FDCE8F79A8D366075C52F3307A35F167B4DB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB1FEC1B-16CD-440B-B822-9610AA512E23}"/>
   <bookViews>
-    <workbookView xWindow="30195" yWindow="1395" windowWidth="23850" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30105" yWindow="2700" windowWidth="26535" windowHeight="12405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Run_set</t>
   </si>
@@ -40,25 +55,19 @@
     <t>SE</t>
   </si>
   <si>
-    <t>1 to 10</t>
-  </si>
-  <si>
-    <t>2 to 10</t>
-  </si>
-  <si>
-    <t>3 to 10</t>
-  </si>
-  <si>
-    <t>4 to 10</t>
-  </si>
-  <si>
-    <t>5 to 10</t>
-  </si>
-  <si>
-    <t>6 to 10</t>
-  </si>
-  <si>
-    <t>7 to 10</t>
+    <t>1 to 8</t>
+  </si>
+  <si>
+    <t>2 to 8</t>
+  </si>
+  <si>
+    <t>3 to 8</t>
+  </si>
+  <si>
+    <t>4 to 8</t>
+  </si>
+  <si>
+    <t>5 to 8</t>
   </si>
   <si>
     <t>1 to 3</t>
@@ -76,10 +85,7 @@
     <t>1 to 7</t>
   </si>
   <si>
-    <t>1 to 8</t>
-  </si>
-  <si>
-    <t>1 to 9</t>
+    <t>LOQ</t>
   </si>
 </sst>
 </file>
@@ -87,7 +93,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -126,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -134,10 +140,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -478,320 +490,288 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8.88671875" style="2"/>
-    <col min="3" max="6" width="8.88671875" style="4"/>
-    <col min="7" max="16384" width="8.88671875" style="2"/>
+    <col min="3" max="6" width="8.88671875" style="6"/>
+    <col min="7" max="7" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.96629811898027052</v>
+      </c>
+      <c r="D2" s="6">
+        <v>-4.8328629012574821E-3</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.99989413276883654</v>
+      </c>
+      <c r="F2" s="6">
+        <v>3.4681726284548349E-3</v>
+      </c>
+      <c r="G2" s="4">
+        <f>10*F2</f>
+        <v>3.4681726284548346E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.99823199925097283</v>
+      </c>
+      <c r="D3" s="6">
+        <v>-1.009855592461789E-2</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.99970878382424</v>
+      </c>
+      <c r="F3" s="6">
+        <v>9.1897211186715566E-3</v>
+      </c>
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:G11" si="0">10*F3</f>
+        <v>9.1897211186715566E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1.0240396578067781</v>
+      </c>
+      <c r="D4" s="6">
+        <v>-1.9293313501867509E-2</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.99990388581354206</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1.4125078307208661E-2</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.14125078307208661</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C5" s="6">
+        <v>1.002920479048008</v>
+      </c>
+      <c r="D5" s="6">
+        <v>-5.8149187043470309E-3</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.99977916121306232</v>
+      </c>
+      <c r="F5" s="6">
+        <v>3.3114532671342858E-2</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.33114532671342856</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.974091581529827</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2.0882462638979291E-2</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.99952199843061618</v>
+      </c>
+      <c r="F6" s="6">
+        <v>8.497858850168695E-2</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.84978588501686947</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
+        <v>7</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.97027154858800257</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2.6770934223856589E-2</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.99899956573897675</v>
+      </c>
+      <c r="F7" s="6">
+        <v>9.1764733827390282E-2</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.91764733827390277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.97301821167248215</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2.8362521610562349E-2</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.99945954960436534</v>
+      </c>
+      <c r="F8" s="6">
+        <v>9.2287043530191251E-2</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.92287043530191248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.97067705425691686</v>
+      </c>
+      <c r="D9" s="6">
+        <v>4.4777741172982242E-2</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.99935822865087975</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.1008291013905786</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0082910139057861</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>5</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.96571575701497525</v>
+      </c>
+      <c r="D10" s="6">
+        <v>8.087909557179232E-2</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.9992034571936449</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.1099704993642118</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0997049936421179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4">
-        <v>0.97168105873819988</v>
-      </c>
-      <c r="D2" s="4">
-        <v>2.9846307767170659E-2</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0.99986934861515275</v>
-      </c>
-      <c r="F2" s="4">
-        <v>8.1355898977001351E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.97110874534421132</v>
-      </c>
-      <c r="D3" s="4">
-        <v>3.7391485395393907E-2</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.99985876352132641</v>
-      </c>
-      <c r="F3" s="4">
-        <v>8.5889187484228996E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.97008746853731875</v>
-      </c>
-      <c r="D4" s="4">
-        <v>5.0903633725135247E-2</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.99984533658693175</v>
-      </c>
-      <c r="F4" s="4">
-        <v>9.0351427569537762E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.96838958581576096</v>
-      </c>
-      <c r="D5" s="4">
-        <v>7.3891489355269624E-2</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.99982928313973518</v>
-      </c>
-      <c r="F5" s="4">
-        <v>9.4257514211671251E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.96626127236071646</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.10337257202884829</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.99979068624229317</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.1008185829905448</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.96944071048250291</v>
-      </c>
-      <c r="D7" s="4">
-        <v>5.5832402017371233E-2</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.99974815803790862</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0.1085085046299928</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2">
+      <c r="B11" s="2">
         <v>4</v>
       </c>
-      <c r="C8" s="4">
-        <v>0.97555820557353323</v>
-      </c>
-      <c r="D8" s="4">
-        <v>-4.2429862882299219E-2</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0.99973593954397788</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0.110983970608472</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2">
-        <v>3</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.96629811898027052</v>
-      </c>
-      <c r="D9" s="4">
-        <v>-4.8328629012574821E-3</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.99989413276883654</v>
-      </c>
-      <c r="F9" s="4">
-        <v>3.4681726284548349E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="2">
-        <v>4</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0.99823199925097283</v>
-      </c>
-      <c r="D10" s="4">
-        <v>-1.009855592461789E-2</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0.99970878382424</v>
-      </c>
-      <c r="F10" s="4">
-        <v>9.1897211186715566E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2">
-        <v>5</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1.0240396578067781</v>
-      </c>
-      <c r="D11" s="4">
-        <v>-1.9293313501867509E-2</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0.99990388581354206</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1.4125078307208661E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2">
-        <v>6</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1.002920479048008</v>
-      </c>
-      <c r="D12" s="4">
-        <v>-5.8149187043470309E-3</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0.99977916121306232</v>
-      </c>
-      <c r="F12" s="4">
-        <v>3.3114532671342858E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="2">
-        <v>7</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0.97027154858800257</v>
-      </c>
-      <c r="D13" s="4">
-        <v>2.6770934223856589E-2</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0.99899956573897675</v>
-      </c>
-      <c r="F13" s="4">
-        <v>9.1764733827390282E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="2">
-        <v>8</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0.974091581529827</v>
-      </c>
-      <c r="D14" s="4">
-        <v>2.0882462638979291E-2</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0.99952199843061618</v>
-      </c>
-      <c r="F14" s="4">
-        <v>8.497858850168695E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="2">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0.97618713795662282</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1.6045116998708881E-2</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0.9997864121508927</v>
-      </c>
-      <c r="F15" s="4">
-        <v>7.9352985181425362E-2</v>
+      <c r="C11" s="6">
+        <v>0.95521546926501955</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.15988126054764701</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.99878247540869414</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.1219696159800346</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="0"/>
+        <v>1.219696159800346</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F11">
+      <sortCondition ref="F1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/curve_table.xlsx
+++ b/curve_table.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,251 +397,201 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1 to 8</t>
+          <t>1 to 7</t>
         </is>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>0.974091581529827</v>
+        <v>38.07780766573222</v>
       </c>
       <c r="D2">
-        <v>0.02088246263897929</v>
+        <v>16.08253866995386</v>
       </c>
       <c r="E2">
-        <v>0.9995219984306162</v>
+        <v>0.999869954258125</v>
       </c>
       <c r="F2">
-        <v>0.08497858850168695</v>
+        <v>17.50852713228541</v>
       </c>
       <c r="G2">
-        <v>0.701409201863441</v>
+        <v>0.1062985680460642</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2 to 8</t>
+          <t>2 to 7</t>
         </is>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>0.9730182116724822</v>
+        <v>38.0821243246624</v>
       </c>
       <c r="D3">
-        <v>0.02836252161056235</v>
+        <v>15.77850958416475</v>
       </c>
       <c r="E3">
-        <v>0.9994595496043653</v>
+        <v>0.9998556612401222</v>
       </c>
       <c r="F3">
-        <v>0.09228704353019125</v>
+        <v>19.56642659800932</v>
       </c>
       <c r="G3">
-        <v>0.7765563741171705</v>
+        <v>0.1952338394757159</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3 to 8</t>
+          <t>3 to 7</t>
         </is>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>0.9706770542569169</v>
+        <v>38.18688938349515</v>
       </c>
       <c r="D4">
-        <v>0.04477774117298224</v>
+        <v>8.392998810679329</v>
       </c>
       <c r="E4">
-        <v>0.9993582286508798</v>
+        <v>0.9998786071256957</v>
       </c>
       <c r="F4">
-        <v>0.1008291013905786</v>
+        <v>19.0972508344454</v>
       </c>
       <c r="G4">
-        <v>0.9197556146491543</v>
+        <v>0.9599987405596944</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4 to 8</t>
+          <t>4 to 7</t>
         </is>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>0.9657157570149753</v>
+        <v>38.15339072448979</v>
       </c>
       <c r="D5">
-        <v>0.08087909557179232</v>
+        <v>10.92633489795958</v>
       </c>
       <c r="E5">
-        <v>0.9992034571936449</v>
+        <v>0.9998503530633767</v>
       </c>
       <c r="F5">
-        <v>0.1099704993642118</v>
+        <v>23.10375633696274</v>
       </c>
       <c r="G5">
-        <v>0.9304495088670632</v>
+        <v>0.9749434455972637</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5 to 8</t>
+          <t>1 to 3</t>
         </is>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>0.9552154692650196</v>
+        <v>33.96482081830362</v>
       </c>
       <c r="D6">
-        <v>0.159881260547647</v>
+        <v>25.48312092857877</v>
       </c>
       <c r="E6">
-        <v>0.9987824754086941</v>
+        <v>0.9928226851059103</v>
       </c>
       <c r="F6">
-        <v>0.1219696159800346</v>
+        <v>11.6131991255234</v>
       </c>
       <c r="G6">
-        <v>0.9630091360411659</v>
+        <v>0.07185336232941275</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1 to 3</t>
+          <t>1 to 4</t>
         </is>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>0.9662981189802705</v>
+        <v>37.93998958885881</v>
       </c>
       <c r="D7">
-        <v>-0.004832862901257482</v>
+        <v>21.24600693219725</v>
       </c>
       <c r="E7">
-        <v>0.9998941327688365</v>
+        <v>0.9951880736412856</v>
       </c>
       <c r="F7">
-        <v>0.003468172628454835</v>
+        <v>15.34139415969332</v>
       </c>
       <c r="G7">
-        <v>1.100031560300757</v>
+        <v>0.08655874169815581</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1 to 4</t>
+          <t>1 to 5</t>
         </is>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>0.9982319992509728</v>
+        <v>37.57696471242281</v>
       </c>
       <c r="D8">
-        <v>-0.01009855592461789</v>
+        <v>22.24236607166757</v>
       </c>
       <c r="E8">
-        <v>0.99970878382424</v>
+        <v>0.9987719500213734</v>
       </c>
       <c r="F8">
-        <v>0.009189721118671557</v>
+        <v>12.68196196846037</v>
       </c>
       <c r="G8">
-        <v>1.240966958448265</v>
+        <v>0.08019721255143343</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1 to 5</t>
+          <t>1 to 6</t>
         </is>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>1.024039657806778</v>
+        <v>37.41068937981627</v>
       </c>
       <c r="D9">
-        <v>-0.01929331350186751</v>
+        <v>23.19620488477405</v>
       </c>
       <c r="E9">
-        <v>0.9999038858135421</v>
+        <v>0.9998066916930688</v>
       </c>
       <c r="F9">
-        <v>0.01412507830720866</v>
+        <v>11.08566277098988</v>
       </c>
       <c r="G9">
-        <v>1.594564381418264</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>1 to 6</t>
-        </is>
-      </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>1.002920479048008</v>
-      </c>
-      <c r="D10">
-        <v>-0.005814918704347031</v>
-      </c>
-      <c r="E10">
-        <v>0.9997791612130623</v>
-      </c>
-      <c r="F10">
-        <v>0.03311453267134286</v>
-      </c>
-      <c r="G10">
-        <v>1.129858470369546</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>1 to 7</t>
-        </is>
-      </c>
-      <c r="B11">
-        <v>7</v>
-      </c>
-      <c r="C11">
-        <v>0.9702715485880026</v>
-      </c>
-      <c r="D11">
-        <v>0.02677093422385659</v>
-      </c>
-      <c r="E11">
-        <v>0.9989995657389768</v>
-      </c>
-      <c r="F11">
-        <v>0.09176473382739028</v>
-      </c>
-      <c r="G11">
-        <v>0.6469431403429321</v>
+        <v>0.07554754717594177</v>
       </c>
     </row>
   </sheetData>
